--- a/src/assets/excel/user.xlsx
+++ b/src/assets/excel/user.xlsx
@@ -11,43 +11,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>No</t>
+    <t>no</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>name</t>
   </si>
   <si>
-    <t>Permission</t>
+    <t>permission</t>
   </si>
   <si>
-    <t>Username</t>
+    <t>username</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>admin admin</t>
-  </si>
-  <si>
-    <t>Administrator</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>asd dsa</t>
-  </si>
-  <si>
-    <t>Member</t>
+    <t>_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -59,9 +44,13 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -78,24 +67,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -103,8 +95,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -326,22 +324,22 @@
     <col customWidth="1" min="1" max="1" width="9.43"/>
     <col customWidth="1" min="2" max="2" width="29.71"/>
     <col customWidth="1" min="3" max="3" width="31.29"/>
-    <col customWidth="1" min="4" max="4" width="31.0"/>
-    <col customWidth="1" min="5" max="5" width="14.57"/>
-    <col customWidth="1" min="6" max="26" width="12.57"/>
+    <col customWidth="1" min="4" max="4" width="34.29"/>
+    <col customWidth="1" min="5" max="5" width="41.14"/>
+    <col customWidth="1" min="6" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -349,717 +347,690 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1111.0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2222.0</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
     </row>
     <row r="113" ht="15.75" customHeight="1"/>
     <row r="114" ht="15.75" customHeight="1"/>

--- a/src/assets/excel/user.xlsx
+++ b/src/assets/excel/user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l3lacksmith\Documents\dcs-team\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3016E4B0-D3F1-4BB4-B767-97A0E8782E05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0D71DE-3C21-4EC9-AD92-AC33C30E5F5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>name</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>_id</t>
+  </si>
+  <si>
+    <t>telephone</t>
   </si>
 </sst>
 </file>
@@ -94,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -118,6 +121,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -336,10 +350,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -347,11 +361,12 @@
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -361,582 +376,694 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="10"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="10"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="10"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="11"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="10"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="10"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="10"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="10"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="10"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="10"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="10"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="10"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="10"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="10"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="10"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="10"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="10"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="10"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="10"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="10"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="10"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="10"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="12"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="12"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="12"/>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="12"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="12"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="12"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="12"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="12"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="12"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="12"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="12"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="12"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="12"/>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="12"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="12"/>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="12"/>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="12"/>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="12"/>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="12"/>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="12"/>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="12"/>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="12"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="12"/>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="12"/>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="12"/>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="12"/>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D67" s="12"/>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
-    </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D68" s="12"/>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
-    </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="12"/>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D70" s="12"/>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
-    </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D71" s="12"/>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D72" s="12"/>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
-    </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D73" s="12"/>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
-    </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D74" s="12"/>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
-    </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D75" s="12"/>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
-    </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D76" s="12"/>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
-    </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D77" s="12"/>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
-    </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D78" s="12"/>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
-    </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D79" s="12"/>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
-    </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D80" s="12"/>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
-    </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D81" s="12"/>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
-    </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D82" s="12"/>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
-    </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D83" s="12"/>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
-    </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D84" s="12"/>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
-    </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D85" s="12"/>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
-    </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D86" s="12"/>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
-    </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D87" s="12"/>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
-    </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D88" s="12"/>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
-    </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D89" s="12"/>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
-    </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D90" s="12"/>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
-    </row>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D91" s="12"/>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
-    </row>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D92" s="12"/>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
-    </row>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D93" s="12"/>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
-    </row>
-    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D94" s="12"/>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
-    </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D95" s="12"/>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
-    </row>
-    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D96" s="12"/>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
-    </row>
-    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D97" s="12"/>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
-    </row>
-    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D98" s="12"/>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
-    </row>
-    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D99" s="12"/>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
-    </row>
-    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D100" s="12"/>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
-    </row>
-    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D101" s="12"/>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
-    </row>
-    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D102" s="12"/>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
-    </row>
-    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D103" s="12"/>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
-    </row>
-    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D104" s="12"/>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
-    </row>
-    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D105" s="12"/>
+    </row>
+    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
-    </row>
-    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D106" s="12"/>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
-    </row>
-    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D107" s="12"/>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
-    </row>
-    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D108" s="12"/>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
-    </row>
-    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D109" s="12"/>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
-    </row>
-    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D110" s="12"/>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
     </row>
-    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
     </row>
